--- a/table/monster.xlsx
+++ b/table/monster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id:number
 primaryKey:true</t>
@@ -84,6 +84,90 @@
   </si>
   <si>
     <t>青头怪</t>
+  </si>
+  <si>
+    <t>怪王</t>
+  </si>
+  <si>
+    <t>骷髅人</t>
+  </si>
+  <si>
+    <t>骷髅士兵</t>
+  </si>
+  <si>
+    <t>骷髅队长</t>
+  </si>
+  <si>
+    <t>冥队长</t>
+  </si>
+  <si>
+    <t>小蝙蝠</t>
+  </si>
+  <si>
+    <t>大蝙蝠</t>
+  </si>
+  <si>
+    <t>红蝙蝠</t>
+  </si>
+  <si>
+    <t>冥灵魔王</t>
+  </si>
+  <si>
+    <t>灵武士</t>
+  </si>
+  <si>
+    <t>初级法师</t>
+  </si>
+  <si>
+    <t>高级卫兵</t>
+  </si>
+  <si>
+    <t>冥卫兵</t>
+  </si>
+  <si>
+    <t>初级卫兵</t>
+  </si>
+  <si>
+    <t>双手剑士</t>
+  </si>
+  <si>
+    <t>高级法师</t>
+  </si>
+  <si>
+    <t>麻衣法师</t>
+  </si>
+  <si>
+    <t>红衣法师</t>
+  </si>
+  <si>
+    <t>红衣魔王</t>
+  </si>
+  <si>
+    <t>灵法师</t>
+  </si>
+  <si>
+    <t>金卫士</t>
+  </si>
+  <si>
+    <t>金队长</t>
+  </si>
+  <si>
+    <t>冥战士</t>
+  </si>
+  <si>
+    <t>白衣武士</t>
+  </si>
+  <si>
+    <t>兽面人</t>
+  </si>
+  <si>
+    <t>兽面武士</t>
+  </si>
+  <si>
+    <t>石头怪人</t>
+  </si>
+  <si>
+    <t>影子战士</t>
   </si>
 </sst>
 </file>
@@ -111,65 +195,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -186,9 +211,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,14 +262,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,30 +325,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,15 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,11 +559,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +586,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,32 +629,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,137 +659,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1077,7 +1158,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1099,7 +1180,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1182,12 +1263,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1211,15 +1292,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1243,15 +1324,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1259,10 +1340,18 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>250</v>
+      </c>
+      <c r="E6" s="2">
+        <v>125</v>
+      </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
@@ -1272,37 +1361,61 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="2">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>150</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
@@ -1312,17 +1425,29 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>400</v>
+      </c>
+      <c r="D9" s="2">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -1332,17 +1457,29 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="2">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>900</v>
+      </c>
+      <c r="E10" s="2">
+        <v>850</v>
+      </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
@@ -1352,37 +1489,61 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="2">
+        <v>84</v>
+      </c>
+      <c r="J10" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2">
+        <v>150</v>
+      </c>
+      <c r="D12" s="2">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30</v>
+      </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
@@ -1392,17 +1553,29 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>550</v>
+      </c>
+      <c r="D13" s="2">
+        <v>170</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
@@ -1412,37 +1585,61 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="2">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1500</v>
+      </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
+        <v>250</v>
+      </c>
+      <c r="J14" s="2">
+        <v>220</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="2">
+        <v>980</v>
+      </c>
+      <c r="E15" s="2">
+        <v>900</v>
+      </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
@@ -1452,17 +1649,29 @@
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="2">
+        <v>88</v>
+      </c>
+      <c r="J15" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>125</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2">
+        <v>25</v>
+      </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
@@ -1472,17 +1681,29 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>560</v>
+      </c>
+      <c r="E17" s="2">
+        <v>460</v>
+      </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
@@ -1492,17 +1713,29 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="2">
+        <v>60</v>
+      </c>
+      <c r="J17" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1250</v>
+      </c>
+      <c r="D18" s="2">
+        <v>500</v>
+      </c>
+      <c r="E18" s="2">
+        <v>400</v>
+      </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
@@ -1512,17 +1745,29 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="2">
+        <v>55</v>
+      </c>
+      <c r="J18" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2">
+        <v>450</v>
+      </c>
+      <c r="D19" s="2">
+        <v>150</v>
+      </c>
+      <c r="E19" s="2">
+        <v>90</v>
+      </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
@@ -1532,17 +1777,29 @@
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="2">
+        <v>22</v>
+      </c>
+      <c r="J19" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D20" s="2">
+        <v>620</v>
+      </c>
+      <c r="E20" s="2">
+        <v>520</v>
+      </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
@@ -1552,17 +1809,29 @@
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="2">
+        <v>65</v>
+      </c>
+      <c r="J20" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>110</v>
+      </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
@@ -1572,17 +1841,29 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="2">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2">
+        <v>220</v>
+      </c>
+      <c r="D22" s="2">
+        <v>120</v>
+      </c>
+      <c r="E22" s="2">
+        <v>70</v>
+      </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
@@ -1592,17 +1873,29 @@
       <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="I22" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2">
+        <v>500</v>
+      </c>
+      <c r="D23" s="2">
+        <v>400</v>
+      </c>
+      <c r="E23" s="2">
+        <v>260</v>
+      </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
@@ -1612,17 +1905,29 @@
       <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="5"/>
+      <c r="I23" s="2">
+        <v>47</v>
+      </c>
+      <c r="J23" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1000</v>
+      </c>
       <c r="F24" s="2">
         <v>0</v>
       </c>
@@ -1632,17 +1937,29 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="5"/>
+      <c r="I24" s="2">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D25" s="2">
+        <v>830</v>
+      </c>
+      <c r="E25" s="2">
+        <v>730</v>
+      </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
@@ -1652,17 +1969,29 @@
       <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="5"/>
+      <c r="I25" s="2">
+        <v>80</v>
+      </c>
+      <c r="J25" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
+        <v>850</v>
+      </c>
+      <c r="D26" s="2">
+        <v>350</v>
+      </c>
+      <c r="E26" s="2">
+        <v>200</v>
+      </c>
       <c r="F26" s="2">
         <v>0</v>
       </c>
@@ -1672,17 +2001,29 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="5"/>
+      <c r="I26" s="2">
+        <v>45</v>
+      </c>
+      <c r="J26" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2">
+        <v>900</v>
+      </c>
+      <c r="D27" s="2">
+        <v>750</v>
+      </c>
+      <c r="E27" s="2">
+        <v>650</v>
+      </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
@@ -1692,17 +2033,29 @@
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="5"/>
+      <c r="I27" s="2">
+        <v>77</v>
+      </c>
+      <c r="J27" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>680</v>
+      </c>
+      <c r="E28" s="2">
+        <v>590</v>
+      </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
@@ -1712,17 +2065,29 @@
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="5"/>
+      <c r="I28" s="2">
+        <v>70</v>
+      </c>
+      <c r="J28" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>30</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D29" s="2">
+        <v>300</v>
+      </c>
+      <c r="E29" s="2">
+        <v>150</v>
+      </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
@@ -1732,17 +2097,29 @@
       <c r="H29" s="2">
         <v>0</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="2">
+        <v>40</v>
+      </c>
+      <c r="J29" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>32</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>300</v>
+      </c>
+      <c r="D30" s="2">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45</v>
+      </c>
       <c r="F30" s="2">
         <v>0</v>
       </c>
@@ -1752,17 +2129,29 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="5"/>
+      <c r="I30" s="2">
+        <v>13</v>
+      </c>
+      <c r="J30" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>33</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>900</v>
+      </c>
+      <c r="D31" s="2">
+        <v>450</v>
+      </c>
+      <c r="E31" s="2">
+        <v>300</v>
+      </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
@@ -1772,17 +2161,29 @@
       <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="5"/>
+      <c r="I31" s="2">
+        <v>50</v>
+      </c>
+      <c r="J31" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>34</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>500</v>
+      </c>
+      <c r="D32" s="2">
+        <v>115</v>
+      </c>
+      <c r="E32" s="2">
+        <v>65</v>
+      </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
@@ -1792,17 +2193,29 @@
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="5"/>
+      <c r="I32" s="2">
+        <v>15</v>
+      </c>
+      <c r="J32" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>35</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3100</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1050</v>
+      </c>
+      <c r="E33" s="2">
+        <v>950</v>
+      </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
@@ -1812,8 +2225,12 @@
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="5"/>
+      <c r="I33" s="2">
+        <v>92</v>
+      </c>
+      <c r="J33" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2"/>

--- a/table/monster.xlsx
+++ b/table/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23820" windowHeight="11670"/>
+    <workbookView windowWidth="17745" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="sh" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>id:number
 primaryKey:true</t>
@@ -175,8 +175,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -195,29 +195,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -232,29 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -275,11 +247,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,9 +262,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,9 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,8 +311,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,12 +348,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,174 +529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +539,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,15 +588,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,21 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -628,17 +639,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,19 +659,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,116 +680,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +804,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1158,7 +1161,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2232,15 +2235,37 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2550</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2250</v>
+      </c>
+      <c r="F34" s="2">
+        <v>60</v>
+      </c>
+      <c r="G34" s="2">
+        <v>50</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>312</v>
+      </c>
+      <c r="J34" s="5">
+        <v>275</v>
+      </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="2"/>

--- a/table/monster.xlsx
+++ b/table/monster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>id:number
 primaryKey:true</t>
@@ -175,8 +175,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -196,21 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -226,7 +211,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -234,14 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +227,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +293,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -310,30 +324,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,175 +348,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,17 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,17 +566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,20 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +619,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B34" sqref="B34"/>
+      <selection pane="topRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1356,13 +1356,13 @@
         <v>125</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2">
         <v>32</v>
@@ -1420,13 +1420,13 @@
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2">
         <v>8</v>
@@ -1452,13 +1452,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
         <v>15</v>
@@ -1484,13 +1484,13 @@
         <v>850</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2">
         <v>84</v>
@@ -1516,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -1548,13 +1548,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
@@ -1580,13 +1580,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2">
         <v>25</v>
@@ -1644,13 +1644,13 @@
         <v>900</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2">
         <v>88</v>
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
@@ -1708,13 +1708,13 @@
         <v>460</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2">
         <v>60</v>
@@ -1740,13 +1740,13 @@
         <v>400</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I18" s="2">
         <v>55</v>
@@ -1772,13 +1772,13 @@
         <v>90</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>22</v>
@@ -1804,13 +1804,13 @@
         <v>520</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2">
         <v>65</v>
@@ -1836,13 +1836,13 @@
         <v>110</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2">
         <v>30</v>
@@ -1868,13 +1868,13 @@
         <v>70</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2">
         <v>20</v>
@@ -1900,13 +1900,13 @@
         <v>260</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="2">
         <v>47</v>
@@ -1932,13 +1932,13 @@
         <v>1000</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I24" s="2">
         <v>100</v>
@@ -1964,13 +1964,13 @@
         <v>730</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2">
         <v>80</v>
@@ -1996,13 +1996,13 @@
         <v>200</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2">
         <v>45</v>
@@ -2028,13 +2028,13 @@
         <v>650</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2">
         <v>77</v>
@@ -2060,13 +2060,13 @@
         <v>590</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I28" s="2">
         <v>70</v>
@@ -2092,13 +2092,13 @@
         <v>150</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2">
         <v>40</v>
@@ -2124,13 +2124,13 @@
         <v>45</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2">
         <v>13</v>
@@ -2156,13 +2156,13 @@
         <v>300</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2">
         <v>50</v>
@@ -2188,13 +2188,13 @@
         <v>65</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I32" s="2">
         <v>15</v>
@@ -2220,13 +2220,13 @@
         <v>950</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2">
         <v>92</v>
@@ -2263,19 +2263,41 @@
       <c r="I34" s="2">
         <v>312</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1333</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1333</v>
+      </c>
+      <c r="F35" s="2">
+        <v>30</v>
+      </c>
+      <c r="G35" s="2">
+        <v>20</v>
+      </c>
+      <c r="H35" s="2">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2">
+        <v>133</v>
+      </c>
+      <c r="J35" s="5">
+        <v>133</v>
+      </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2"/>
